--- a/ONCHO/Entomological survey Survey/Benin/2024/bj_oncho_bsa_2408_2_capture_form.xlsx
+++ b/ONCHO/Entomological survey Survey/Benin/2024/bj_oncho_bsa_2408_2_capture_form.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Entomological survey Survey\Benin\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408A663E-DA65-4842-A842-A109E9E053E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818F6138-2A22-45A5-B32D-F8C22AE0C34C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="118">
   <si>
     <t>type</t>
   </si>
@@ -294,12 +294,6 @@
     <t>French</t>
   </si>
   <si>
-    <t>bj_oncho_bsa_2408_2_capture_form</t>
-  </si>
-  <si>
-    <t>(2024 Août) 2. Fiche de collecte des Simulies par équipe V4</t>
-  </si>
-  <si>
     <t>TCHAOUROU</t>
   </si>
   <si>
@@ -364,6 +358,24 @@
   </si>
   <si>
     <t>GBONGBONTOUTA</t>
+  </si>
+  <si>
+    <t>begin repeat</t>
+  </si>
+  <si>
+    <t>Capture</t>
+  </si>
+  <si>
+    <t>end repeat</t>
+  </si>
+  <si>
+    <t>bj_oncho_bsa_2408_2_capture_form_v2</t>
+  </si>
+  <si>
+    <t>(2024 Août) 2. Fiche de collecte des Simulies par équipe V2</t>
+  </si>
+  <si>
+    <t>bj_flies_2409</t>
   </si>
 </sst>
 </file>
@@ -790,13 +802,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1052,40 +1064,38 @@
     </row>
     <row r="10" spans="1:14" s="3" customFormat="1">
       <c r="A10" s="6" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>50</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="6"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
-      <c r="J10" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:14" s="3" customFormat="1">
       <c r="A11" s="6" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>50</v>
+      </c>
       <c r="F11" s="6"/>
       <c r="G11" s="8"/>
       <c r="H11" s="7"/>
@@ -1098,13 +1108,13 @@
     </row>
     <row r="12" spans="1:14" s="3" customFormat="1">
       <c r="A12" s="6" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="7"/>
@@ -1120,63 +1130,69 @@
     </row>
     <row r="13" spans="1:14" s="3" customFormat="1">
       <c r="A13" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
+        <v>53</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:14" s="3" customFormat="1">
       <c r="A14" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:14" s="3" customFormat="1">
       <c r="A15" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="13"/>
+        <v>56</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:14" s="3" customFormat="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
       <c r="E16" s="6"/>
@@ -1188,20 +1204,52 @@
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
     </row>
-    <row r="17" spans="2:4" s="3" customFormat="1">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="2:4" s="3" customFormat="1">
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="2:4" s="3" customFormat="1">
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+    <row r="17" spans="1:12" s="3" customFormat="1">
+      <c r="A17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+    </row>
+    <row r="18" spans="1:12" s="3" customFormat="1">
+      <c r="A18" s="6"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:12" s="3" customFormat="1">
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" s="3" customFormat="1">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" s="3" customFormat="1">
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1426,10 +1474,10 @@
         <v>64</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1437,10 +1485,10 @@
         <v>64</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1448,10 +1496,10 @@
         <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1459,10 +1507,10 @@
         <v>64</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1470,10 +1518,10 @@
         <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1481,13 +1529,13 @@
         <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1495,13 +1543,13 @@
         <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1509,13 +1557,13 @@
         <v>65</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1523,13 +1571,13 @@
         <v>65</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1537,13 +1585,13 @@
         <v>65</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1551,13 +1599,13 @@
         <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1565,13 +1613,13 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1579,13 +1627,13 @@
         <v>66</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1593,13 +1641,13 @@
         <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1607,13 +1655,13 @@
         <v>66</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1621,13 +1669,13 @@
         <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1635,13 +1683,13 @@
         <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1649,13 +1697,13 @@
         <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1663,13 +1711,13 @@
         <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1677,13 +1725,13 @@
         <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1691,13 +1739,13 @@
         <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C41" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1705,13 +1753,13 @@
         <v>66</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1719,13 +1767,13 @@
         <v>66</v>
       </c>
       <c r="B43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1739,7 +1787,7 @@
         <v>101</v>
       </c>
       <c r="F45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1753,7 +1801,7 @@
         <v>102</v>
       </c>
       <c r="F46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1767,7 +1815,7 @@
         <v>103</v>
       </c>
       <c r="F47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1781,7 +1829,7 @@
         <v>104</v>
       </c>
       <c r="F48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1795,7 +1843,7 @@
         <v>105</v>
       </c>
       <c r="F49" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1809,7 +1857,7 @@
         <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1823,7 +1871,7 @@
         <v>107</v>
       </c>
       <c r="F51" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1837,7 +1885,7 @@
         <v>108</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1851,7 +1899,7 @@
         <v>109</v>
       </c>
       <c r="F53" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1865,7 +1913,7 @@
         <v>110</v>
       </c>
       <c r="F54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1879,7 +1927,7 @@
         <v>111</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1896,7 +1944,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1922,10 +1970,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="19" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>89</v>
